--- a/Security_Advisory_December_2017.xlsx
+++ b/Security_Advisory_December_2017.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="CVE Details" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="CVE Details" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Matched Keyword" sheetId="2" r:id="rId2"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>CVE ID Number</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>Summary Text</t>
+  </si>
+  <si>
+    <t>Match Keyword</t>
+  </si>
+  <si>
+    <t>Match CVE ID</t>
+  </si>
+  <si>
+    <t>SummaryText</t>
   </si>
 </sst>
 </file>
@@ -76,7 +85,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,14 +120,15 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -403,18 +417,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -461,6 +475,36 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
